--- a/F_dataset/ChEMBL/HGF/HGF_preprocessing/HGF_g1.xlsx
+++ b/F_dataset/ChEMBL/HGF/HGF_preprocessing/HGF_g1.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244662030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8036180&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8036110&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80360A0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8036030&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035FC0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035F50&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035EE0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035E70&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035E00&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035D90&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035D20&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035CB0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035C40&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035BD0&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446619A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035B60&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035AF0&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446618C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035A80&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035A10&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446617E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80359A0&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035930&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80358C0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035850&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80357E0&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446615B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035770&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035700&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446613F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035690&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035540&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80354D0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446612A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035460&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80353F0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446611C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035380&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035310&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446610E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80352A0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035230&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244661000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80351C0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035150&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA80350E0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035070&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8035000&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034F90&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034F20&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034EB0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034E40&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034DD0&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034D60&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034CF0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034C80&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034C10&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6060,7 +6060,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C2446609E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034BA0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C244660970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001CFA8034B30&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
